--- a/M-multi-species/data/lipidomics/2025-02-05_Roberts_Test_Coral_BCA.xlsx
+++ b/M-multi-species/data/lipidomics/2025-02-05_Roberts_Test_Coral_BCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/mpartida_uw_edu/Documents/RAFTERY/Sample Preps/Lipidyzer/Roberts/20250205 - 98 Coral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/E5/timeseries_molecular/M-multi-species/data/lipidomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DF8446-52C3-6E41-A87D-8701DD37CADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC73C31-A6B7-8446-AAE7-6D263EC98586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15000" xr2:uid="{79653BEF-2591-884B-8B79-CF5B701CB381}"/>
+    <workbookView xWindow="11540" yWindow="1780" windowWidth="26840" windowHeight="15000" xr2:uid="{79653BEF-2591-884B-8B79-CF5B701CB381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -200,10 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -212,9 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +219,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6A3A7D-50E9-FA43-AC35-5D7D072136F5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -569,13 +574,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +591,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="9">
         <v>340.1602490208133</v>
       </c>
     </row>
@@ -597,7 +602,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>139.19625889357363</v>
       </c>
     </row>
@@ -608,7 +613,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>7.3230514996486908</v>
       </c>
     </row>
@@ -619,18 +624,18 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>35.036690064592477</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>185.93733974725194</v>
       </c>
     </row>
